--- a/NCACY45_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCACY45_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02052717432803216</v>
+        <v>0.02076932653743772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000501974627714233</v>
+        <v>0.0007711266825557318</v>
       </c>
       <c r="D2" t="n">
-        <v>2.594056549621977</v>
+        <v>2.731120858313593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08675295941132852</v>
+        <v>0.9999999999692264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002109506260724425</v>
+        <v>0.001471213943067948</v>
       </c>
       <c r="G2" t="n">
-        <v>7.128750618308523</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6389357563838444</v>
+        <v>1.683971513613979e-28</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004031715529794932</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.004283085426761e-07</v>
+        <v>0.003368144828591544</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02145851327495874</v>
+        <v>0.02067003200041769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001600628638745515</v>
+        <v>0.002065751129465667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6170520910602703</v>
+        <v>3.691498434534183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8525356252042249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001633915498521107</v>
+        <v>0.001972086432747142</v>
       </c>
       <c r="G3" t="n">
-        <v>9.999887151984652</v>
+        <v>299.9999999997297</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8466661081857643</v>
+        <v>8.461383484212266e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004313567392693662</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.978942269520778e-07</v>
+        <v>0.003794282222406435</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02171209208832993</v>
+        <v>0.02214400340916753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001624071009128169</v>
+        <v>0.001419712935950854</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7130222049501563</v>
+        <v>1.748894356541954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999889</v>
+        <v>0.9999999999999545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002813168482842132</v>
+        <v>0.002557221801862495</v>
       </c>
       <c r="G4" t="n">
-        <v>5.927724648729564</v>
+        <v>11.64519662475304</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8836373693909568</v>
+        <v>0.8148052290879089</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004411949916914296</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.948316424710329e-07</v>
+        <v>0.0021940520523913</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02184503791980266</v>
+        <v>0.01887488199142032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001730792100456694</v>
+        <v>0.006026975594639846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6933573904587272</v>
+        <v>7.421347823915147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999597998</v>
+        <v>0.6999558942595693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004652083702104237</v>
+        <v>0.06759732103702219</v>
       </c>
       <c r="G5" t="n">
-        <v>5.353322272614274</v>
+        <v>299.1768832902176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8792367626782108</v>
+        <v>2.376166991319375e-13</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004535294304139771</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.956414453006786e-07</v>
+        <v>0.004483519110106416</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02192558291530121</v>
+        <v>0.02236996486827118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001889589913490989</v>
+        <v>0.001665677413508483</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6852276672817608</v>
+        <v>1.447998723332244</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999952637</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006614709815603493</v>
+        <v>0.006151620046117076</v>
       </c>
       <c r="G6" t="n">
-        <v>5.341516697034062</v>
+        <v>6.481679491512125</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8804586454798837</v>
+        <v>0.8850048053058635</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004621926230594883</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.954634352169052e-07</v>
+        <v>0.00233481143694889</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02193033983163911</v>
+        <v>0.02246539759183726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00220267808029018</v>
+        <v>0.00179237755312514</v>
       </c>
       <c r="D7" t="n">
-        <v>0.822876813701225</v>
+        <v>1.407409961318514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9584801466827982</v>
+        <v>0.9999999999982685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008562011251017012</v>
+        <v>0.00812211603816447</v>
       </c>
       <c r="G7" t="n">
-        <v>5.414241175532904</v>
+        <v>6.229958791984349</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8876952075041148</v>
+        <v>0.8923448529609189</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004693631078988961</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.998020644488028e-07</v>
+        <v>0.002384099102962306</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0220058238032734</v>
+        <v>0.02254849647244528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002729827717927094</v>
+        <v>0.01013324359329975</v>
       </c>
       <c r="D8" t="n">
-        <v>1.184286998870102</v>
+        <v>6.951608589529584</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8980698786181396</v>
+        <v>0.8855526006698233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01048936403686967</v>
+        <v>0.001924243448941876</v>
       </c>
       <c r="G8" t="n">
-        <v>5.332099618538408</v>
+        <v>1.270874615185099</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9162146390697773</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004774402921791455</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.993630452978557e-07</v>
+        <v>0.002469284718224441</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02200859112549857</v>
+        <v>0.02255034490011645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002858829596321936</v>
+        <v>0.01155978300568076</v>
       </c>
       <c r="D9" t="n">
-        <v>1.344331369689998</v>
+        <v>6.817290510816763</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8797566647916272</v>
+        <v>0.8894792107883427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01186305885517412</v>
+        <v>0.001941859306218444</v>
       </c>
       <c r="G9" t="n">
-        <v>5.33835535569539</v>
+        <v>1.266182412260026</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9217962495976053</v>
+        <v>0.9999999999999328</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004859999966574616</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.933792372997526e-07</v>
+        <v>0.002519946480163431</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02217037943453233</v>
+        <v>0.02262803879565452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002931751033055581</v>
+        <v>0.01312817451793754</v>
       </c>
       <c r="D10" t="n">
-        <v>1.417196562888984</v>
+        <v>6.681648080607625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8834913671918367</v>
+        <v>0.8996874172856328</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01345496706198262</v>
+        <v>0.002063891899102231</v>
       </c>
       <c r="G10" t="n">
-        <v>5.331775750436456</v>
+        <v>1.312150471517043</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9300101902069756</v>
+        <v>0.9921549585907182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004835659270934125</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.941348132234725e-07</v>
+        <v>0.002518399309444286</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02227752809172268</v>
+        <v>0.02273065748023413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002822509740006703</v>
+        <v>0.015875091856891</v>
       </c>
       <c r="D11" t="n">
-        <v>1.242023272370099</v>
+        <v>6.770789079094928</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9050617131453904</v>
+        <v>0.8849017653035006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01642452614311531</v>
+        <v>0.001988012807088681</v>
       </c>
       <c r="G11" t="n">
-        <v>5.501842769991484</v>
+        <v>1.241263430897394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9098494089900685</v>
+        <v>0.9999999999988393</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005050748037128351</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.861795686071182e-07</v>
+        <v>0.002644865637982342</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02235349068380437</v>
+        <v>0.02281129028139876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002910405747192828</v>
+        <v>0.01772062083423264</v>
       </c>
       <c r="D12" t="n">
-        <v>1.345124893168452</v>
+        <v>6.751439617454545</v>
       </c>
       <c r="E12" t="n">
-        <v>0.892484381501905</v>
+        <v>0.8849514354474048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01829784165468162</v>
+        <v>0.002010103155954875</v>
       </c>
       <c r="G12" t="n">
-        <v>5.560202825815243</v>
+        <v>1.235272724252175</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9093481316988781</v>
+        <v>0.9999999999999969</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005094880334030018</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.889786122530923e-07</v>
+        <v>0.002676291521760651</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02244452617613042</v>
+        <v>0.02290081650404927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0032678259648094</v>
+        <v>0.01884245417733276</v>
       </c>
       <c r="D13" t="n">
-        <v>1.729841549464834</v>
+        <v>6.630172637042222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8513218491553546</v>
+        <v>0.9019522447036969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01936732061247396</v>
+        <v>0.002280953716138821</v>
       </c>
       <c r="G13" t="n">
-        <v>5.485099013188806</v>
+        <v>1.49893724767556</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9274251762454633</v>
+        <v>0.961676415894944</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005169361909840069</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.944372308380552e-07</v>
+        <v>0.002724520064512469</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02252435993832333</v>
+        <v>0.02302753148284964</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003272495186586537</v>
+        <v>0.02120878567100503</v>
       </c>
       <c r="D14" t="n">
-        <v>1.683090086834976</v>
+        <v>6.70019074605521</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8512726247065933</v>
+        <v>0.892078932427867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02183394996239049</v>
+        <v>0.002198239325972272</v>
       </c>
       <c r="G14" t="n">
-        <v>5.612379551424607</v>
+        <v>1.345552895602212</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9159719835523967</v>
+        <v>0.9791282054560724</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005252077992913416</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.89446397779858e-07</v>
+        <v>0.002776533400109421</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02258970700866895</v>
+        <v>0.02310800455511842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003575370095665938</v>
+        <v>0.02263655356646066</v>
       </c>
       <c r="D15" t="n">
-        <v>1.999241984681177</v>
+        <v>6.667345591567863</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8203732049170691</v>
+        <v>0.9020994298212619</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02330341135723557</v>
+        <v>0.002443801892358434</v>
       </c>
       <c r="G15" t="n">
-        <v>5.605048440621336</v>
+        <v>1.646138169111821</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9252718421808678</v>
+        <v>0.9391408912115032</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005350996525659339</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.884790696470417e-07</v>
+        <v>0.002841473314351623</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02269091723256908</v>
+        <v>0.02321394725621666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003616496508896255</v>
+        <v>0.02442198803865448</v>
       </c>
       <c r="D16" t="n">
-        <v>2.002892481693605</v>
+        <v>6.694120690255979</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8191271684110212</v>
+        <v>0.8997084647395984</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02518198397635765</v>
+        <v>0.002481475496439923</v>
       </c>
       <c r="G16" t="n">
-        <v>5.678547009478121</v>
+        <v>1.650255375012945</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9209117436230334</v>
+        <v>0.9366780626758259</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005317121824938932</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.878078219686144e-07</v>
+        <v>0.002834198494742852</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02280632785076242</v>
+        <v>0.02331884205416102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003868774764421958</v>
+        <v>0.02562954905334435</v>
       </c>
       <c r="D17" t="n">
-        <v>2.327562524094194</v>
+        <v>6.68752297959863</v>
       </c>
       <c r="E17" t="n">
-        <v>0.793906215947663</v>
+        <v>0.9066511555713078</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02640366873989195</v>
+        <v>0.002676347247819497</v>
       </c>
       <c r="G17" t="n">
-        <v>5.677198107797231</v>
+        <v>1.89106577049653</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9282773375252077</v>
+        <v>0.9091868818737164</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00546634992194023</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.924656941951796e-07</v>
+        <v>0.002921619883038504</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02298759905285399</v>
+        <v>0.02352261895869376</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003919763453997332</v>
+        <v>0.02924819826915672</v>
       </c>
       <c r="D18" t="n">
-        <v>2.188091549291906</v>
+        <v>6.706506440493392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7976901580041802</v>
+        <v>0.8995865872708984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03024138982935444</v>
+        <v>0.002705003530670738</v>
       </c>
       <c r="G18" t="n">
-        <v>5.75812380581201</v>
+        <v>1.760020905830798</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9182429229787952</v>
+        <v>0.9142725144335972</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005524671742700661</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.893281043801687e-07</v>
+        <v>0.002971309187888101</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02308038427295084</v>
+        <v>0.02359787187088123</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003931327612964179</v>
+        <v>0.0031253034871955</v>
       </c>
       <c r="D19" t="n">
-        <v>2.139714354305852</v>
+        <v>2.566261233959107</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7972863380030667</v>
+        <v>0.8519107413490405</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03172416991229714</v>
+        <v>0.03109531887819248</v>
       </c>
       <c r="G19" t="n">
-        <v>5.840492275766481</v>
+        <v>6.258069370324184</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9123218761761764</v>
+        <v>0.9073535740874878</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005552103613210567</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.874002640528895e-07</v>
+        <v>0.00288600563329812</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.023261939153099</v>
+        <v>0.02377552873859617</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003931751868824094</v>
+        <v>0.003051697224356516</v>
       </c>
       <c r="D20" t="n">
-        <v>2.061398210754403</v>
+        <v>2.199182083341292</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8007262299585742</v>
+        <v>0.8756271434688213</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03453317376015903</v>
+        <v>0.03392384811975734</v>
       </c>
       <c r="G20" t="n">
-        <v>5.912351363173331</v>
+        <v>6.309425802842841</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9055597730488859</v>
+        <v>0.89955059368357</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005636890816275212</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.903128583087884e-07</v>
+        <v>0.002928795527283643</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.023433641985842</v>
+        <v>0.02394285562795535</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003997438419282047</v>
+        <v>0.003114968963176337</v>
       </c>
       <c r="D21" t="n">
-        <v>2.061882825083463</v>
+        <v>2.189775021089931</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7988484477824593</v>
+        <v>0.8725271012825374</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03675139154504967</v>
+        <v>0.03608808995408803</v>
       </c>
       <c r="G21" t="n">
-        <v>5.949560574070577</v>
+        <v>6.336239880809781</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9038679029597907</v>
+        <v>0.898242842567594</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005664494590467151</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.902283148271531e-07</v>
+        <v>0.002948373385470478</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02357207140175277</v>
+        <v>0.02407278937295239</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004500200338924559</v>
+        <v>0.003645704825456427</v>
       </c>
       <c r="D22" t="n">
-        <v>2.559249326420044</v>
+        <v>2.951057689462257</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7590500842521529</v>
+        <v>0.8110387062025922</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03881637174064355</v>
+        <v>0.0380188180622657</v>
       </c>
       <c r="G22" t="n">
-        <v>5.91467744772496</v>
+        <v>6.309202023198592</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9157716361369171</v>
+        <v>0.9114682116566036</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005879588106967675</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.892264824408002e-07</v>
+        <v>0.003076042465818143</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1138,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02374219759755128</v>
+        <v>0.02423234753083336</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00496055275051044</v>
+        <v>0.004122026195181475</v>
       </c>
       <c r="D23" t="n">
-        <v>3.015960845108377</v>
+        <v>3.614725378658402</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7276233438528527</v>
+        <v>0.7671401790586618</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04094855193507136</v>
+        <v>0.04004872087195019</v>
       </c>
       <c r="G23" t="n">
-        <v>5.882381311103687</v>
+        <v>6.281060594133375</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9254313005740922</v>
+        <v>0.9218407464980101</v>
       </c>
       <c r="I23" t="n">
-        <v>0.006063848976949945</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.904515848213848e-07</v>
+        <v>0.003184051189171337</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1169,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02392572498858902</v>
+        <v>0.02446236443903237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004746796725465548</v>
+        <v>0.003798481437105844</v>
       </c>
       <c r="D24" t="n">
-        <v>2.593340554126314</v>
+        <v>2.83136171138033</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7483969748299335</v>
+        <v>0.8091769214211568</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04345322464852531</v>
+        <v>0.04259941809977903</v>
       </c>
       <c r="G24" t="n">
-        <v>5.972054186619133</v>
+        <v>6.342501676421322</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9116831715257425</v>
+        <v>0.9072644685634793</v>
       </c>
       <c r="I24" t="n">
-        <v>0.005940897087226331</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.913452202998529e-07</v>
+        <v>0.003115162981223358</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1200,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02408710964987016</v>
+        <v>1.730155201760744e-22</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005015457339579507</v>
+        <v>0.04513620994543097</v>
       </c>
       <c r="D25" t="n">
-        <v>2.700219344224907</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7306481250476249</v>
+        <v>0.0749820302539123</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04638300793937899</v>
+        <v>0.0428378187157145</v>
       </c>
       <c r="G25" t="n">
-        <v>5.976968210275645</v>
+        <v>6.706207848783352</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9107971371590178</v>
+        <v>0.9138822990500682</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006108572343926256</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.878811505216254e-07</v>
+        <v>0.002878025848758712</v>
       </c>
     </row>
     <row r="26">
@@ -1308,31 +1231,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02432781130161088</v>
+        <v>0.02491394152361436</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005264353727257829</v>
+        <v>0.00420335123673106</v>
       </c>
       <c r="D26" t="n">
-        <v>2.876962683877987</v>
+        <v>3.075208473498011</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7194445748804166</v>
+        <v>0.7816817176600239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04842124419637911</v>
+        <v>0.04746974847438852</v>
       </c>
       <c r="G26" t="n">
-        <v>5.965071114998159</v>
+        <v>6.322537335230285</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9155750100593308</v>
+        <v>0.9113066644408048</v>
       </c>
       <c r="I26" t="n">
-        <v>0.006170145620987957</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.902947719830455e-07</v>
+        <v>0.003247377750344663</v>
       </c>
     </row>
   </sheetData>
